--- a/Data/SiteKeys.xlsx
+++ b/Data/SiteKeys.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ejer\Desktop\Github_UVC_DOVS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denisse\Documents\Work\Sara\UVC_DOVS_Galapagos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CF069-F82A-49D1-AD04-705175059240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838EEED-6107-4A3C-BDD3-8F9F7FC7BE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{520C0315-4934-4420-8948-D1D1C72D6F66}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{520C0315-4934-4420-8948-D1D1C72D6F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="223">
   <si>
     <t>UVC</t>
   </si>
@@ -375,9 +367,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Isabela Isla Tortuga </t>
-  </si>
-  <si>
     <t>ITIs</t>
   </si>
   <si>
@@ -656,9 +645,6 @@
     <t>RoSC</t>
   </si>
   <si>
-    <t>Fondeadero Santa Fe</t>
-  </si>
-  <si>
     <t>Santa Fe Fondeadero</t>
   </si>
   <si>
@@ -700,9 +686,6 @@
     <t>Shark Bay</t>
   </si>
   <si>
-    <t xml:space="preserve">Shark Bay </t>
-  </si>
-  <si>
     <t>SBWo</t>
   </si>
   <si>
@@ -716,9 +699,6 @@
     <t>TNIs</t>
   </si>
   <si>
-    <t>Fondeadero Wolf</t>
-  </si>
-  <si>
     <t>Wolf Fondeadero</t>
   </si>
   <si>
@@ -744,6 +724,15 @@
   </si>
   <si>
     <t>SuSa</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Punta Mangle</t>
+  </si>
+  <si>
+    <t>Botellita</t>
   </si>
 </sst>
 </file>
@@ -1263,21 +1252,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BFE2A6-3BB2-4E28-A680-7DFD191F26C5}">
-  <dimension ref="A1:E986"/>
+  <dimension ref="A1:F986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,10 +1281,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1307,11 +1300,14 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1324,11 +1320,14 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1341,11 +1340,14 @@
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
@@ -1358,11 +1360,14 @@
       <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1375,11 +1380,14 @@
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1392,11 +1400,14 @@
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -1409,11 +1420,14 @@
       <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
@@ -1426,11 +1440,14 @@
       <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
@@ -1443,11 +1460,14 @@
       <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
@@ -1460,11 +1480,14 @@
       <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
@@ -1477,11 +1500,14 @@
       <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
@@ -1494,11 +1520,14 @@
       <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
@@ -1511,11 +1540,14 @@
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -1528,11 +1560,14 @@
       <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
@@ -1545,11 +1580,14 @@
       <c r="D16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>52</v>
       </c>
@@ -1562,11 +1600,14 @@
       <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>56</v>
       </c>
@@ -1579,11 +1620,14 @@
       <c r="D18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>59</v>
       </c>
@@ -1596,11 +1640,14 @@
       <c r="D19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -1613,11 +1660,14 @@
       <c r="D20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>64</v>
       </c>
@@ -1630,11 +1680,14 @@
       <c r="D21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
@@ -1647,11 +1700,14 @@
       <c r="D22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>71</v>
       </c>
@@ -1664,11 +1720,14 @@
       <c r="D23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>74</v>
       </c>
@@ -1681,11 +1740,14 @@
       <c r="D24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>78</v>
       </c>
@@ -1698,11 +1760,14 @@
       <c r="D25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>81</v>
       </c>
@@ -1715,11 +1780,14 @@
       <c r="D26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>84</v>
       </c>
@@ -1732,11 +1800,14 @@
       <c r="D27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>88</v>
       </c>
@@ -1749,11 +1820,14 @@
       <c r="D28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>91</v>
       </c>
@@ -1766,11 +1840,14 @@
       <c r="D29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>94</v>
       </c>
@@ -1783,11 +1860,14 @@
       <c r="D30" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>97</v>
       </c>
@@ -1800,11 +1880,14 @@
       <c r="D31" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>100</v>
       </c>
@@ -1817,11 +1900,14 @@
       <c r="D32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>103</v>
       </c>
@@ -1834,3458 +1920,3589 @@
       <c r="D33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="B35" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="10" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="B36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="B37" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="10" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="10" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="10" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="B41" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="10" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="10" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="B43" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="10" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="10" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="10" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B46" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="10" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>142</v>
-      </c>
       <c r="B47" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="10" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="8" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="D49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="E49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="10" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="10" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="B51" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="10" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="B52" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="10" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="B53" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="10" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="B54" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E54" s="10" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="B55" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E55" s="10" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="B56" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="10" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="B57" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="10" t="s">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="10" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="B60" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E60" s="10" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="B61" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="10" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="B62" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E62" s="10" t="s">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>186</v>
-      </c>
       <c r="B63" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E63" s="10" t="s">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="B64" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="10" t="s">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
-        <v>191</v>
-      </c>
       <c r="B65" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E65" s="10" t="s">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="B66" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="10" t="s">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="20" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+      <c r="B67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="D67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="6" t="s">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="B68" s="21" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="B72" s="5" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="B73" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="B74" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="23"/>
       <c r="B76" s="28"/>
       <c r="C76" s="24"/>
       <c r="D76" s="23"/>
-      <c r="E76" s="26"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="23"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C78" s="6"/>
       <c r="D78" s="29"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="29"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C79" s="10"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C80" s="10"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C81" s="10"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C82" s="10"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C83" s="10"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C84" s="10"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C111" s="10"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C112" s="10"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C113" s="10"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C114" s="10"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C117" s="10"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C121" s="10"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C122" s="10"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C123" s="10"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C124" s="10"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C125" s="10"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C126" s="10"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C127" s="10"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C128" s="10"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C129" s="10"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C130" s="10"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C131" s="10"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C132" s="10"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C133" s="10"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C134" s="10"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C135" s="10"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C136" s="10"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C137" s="10"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C138" s="10"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C139" s="10"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C140" s="10"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C141" s="10"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C142" s="10"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C143" s="10"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C144" s="10"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C145" s="10"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C146" s="10"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C147" s="10"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C148" s="10"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C149" s="10"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C150" s="10"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C151" s="10"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C152" s="10"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C153" s="10"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C154" s="10"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C155" s="10"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C156" s="10"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C157" s="10"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C158" s="10"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C159" s="10"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C160" s="10"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C161" s="10"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C162" s="10"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C163" s="10"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C165" s="10"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C166" s="10"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C167" s="10"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C168" s="10"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C169" s="10"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C170" s="10"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C171" s="10"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C172" s="10"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C173" s="10"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C174" s="10"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C175" s="10"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C176" s="10"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C177" s="10"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C178" s="10"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C179" s="10"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C180" s="10"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C181" s="10"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C182" s="10"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C183" s="10"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C184" s="10"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C185" s="10"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C186" s="10"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C187" s="10"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C188" s="10"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C189" s="10"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C190" s="10"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C191" s="10"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C192" s="10"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C193" s="10"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C194" s="10"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C195" s="10"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C196" s="10"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C197" s="10"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C198" s="10"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C199" s="10"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C200" s="10"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C201" s="10"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C202" s="10"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C203" s="10"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C204" s="10"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C205" s="10"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C206" s="10"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C207" s="10"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C208" s="10"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C209" s="10"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C210" s="10"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C211" s="10"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C212" s="10"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C213" s="10"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C214" s="10"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C215" s="10"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C216" s="10"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C217" s="10"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C218" s="10"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C219" s="10"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C220" s="10"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C221" s="10"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C222" s="10"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C223" s="10"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C224" s="10"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C225" s="10"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C226" s="10"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C227" s="10"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C228" s="10"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C229" s="10"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C230" s="10"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C231" s="10"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C232" s="10"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C233" s="10"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C234" s="10"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C235" s="10"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C236" s="10"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C237" s="10"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C238" s="10"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C239" s="10"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C240" s="10"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C241" s="10"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C242" s="10"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C243" s="10"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C244" s="10"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C245" s="10"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C246" s="10"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C247" s="10"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C248" s="10"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C249" s="10"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C250" s="10"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C251" s="10"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C252" s="10"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C253" s="10"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C254" s="10"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C255" s="10"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C256" s="10"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C257" s="10"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C258" s="10"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C259" s="10"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C260" s="10"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C261" s="10"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C262" s="10"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C263" s="10"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C264" s="10"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C265" s="10"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C266" s="10"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C267" s="10"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C268" s="10"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C269" s="10"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C270" s="10"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C271" s="10"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C272" s="10"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C273" s="10"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C274" s="10"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C275" s="10"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C276" s="10"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C277" s="10"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C278" s="10"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C279" s="10"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C280" s="10"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C281" s="10"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C282" s="10"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C283" s="10"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C284" s="10"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C285" s="10"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C286" s="10"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C287" s="10"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C288" s="10"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C289" s="10"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C290" s="10"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C291" s="10"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C292" s="10"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C293" s="10"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C294" s="10"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C295" s="10"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C296" s="10"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C297" s="10"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C298" s="10"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C299" s="10"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C300" s="10"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C301" s="10"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C302" s="10"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C303" s="10"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C304" s="10"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C305" s="10"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C306" s="10"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C307" s="10"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C308" s="10"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C309" s="10"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C310" s="10"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C311" s="10"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C312" s="10"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C313" s="10"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C314" s="10"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C315" s="10"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C316" s="10"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C317" s="10"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C318" s="10"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C319" s="10"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C320" s="10"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C321" s="10"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C322" s="10"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C323" s="10"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C324" s="10"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C325" s="10"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C326" s="10"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C327" s="10"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C328" s="10"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C329" s="10"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C330" s="10"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C331" s="10"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C332" s="10"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C333" s="10"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C334" s="10"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C335" s="10"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C336" s="10"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C337" s="10"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C338" s="10"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C339" s="10"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C340" s="10"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C341" s="10"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C342" s="10"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C343" s="10"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C344" s="10"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C345" s="10"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C346" s="10"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C347" s="10"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C348" s="10"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C349" s="10"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C350" s="10"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C351" s="10"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C352" s="10"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C353" s="10"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C354" s="10"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C355" s="10"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C356" s="10"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C357" s="10"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C358" s="10"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C359" s="10"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C360" s="10"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C361" s="10"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C362" s="10"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C363" s="10"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C364" s="10"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C365" s="10"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C366" s="10"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C367" s="10"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C368" s="10"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C369" s="10"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C370" s="10"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C371" s="10"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C372" s="10"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C373" s="10"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C374" s="10"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C375" s="10"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C376" s="10"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C377" s="10"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C378" s="10"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C379" s="10"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C380" s="10"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C381" s="10"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C382" s="10"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C383" s="10"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C384" s="10"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C385" s="10"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C386" s="10"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C387" s="10"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C388" s="10"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C389" s="10"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C390" s="10"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C391" s="10"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C392" s="10"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C393" s="10"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C394" s="10"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C395" s="10"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C396" s="10"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C397" s="10"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C398" s="10"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C399" s="10"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C400" s="10"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C401" s="10"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C402" s="10"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C403" s="10"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C404" s="10"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C405" s="10"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C406" s="10"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C407" s="10"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C408" s="10"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C409" s="10"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C410" s="10"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C411" s="10"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C412" s="10"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C413" s="10"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C414" s="10"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C415" s="10"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C416" s="10"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C417" s="10"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C418" s="10"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C419" s="10"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C420" s="10"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C421" s="10"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C422" s="10"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C423" s="10"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C424" s="10"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C425" s="10"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C426" s="10"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C427" s="10"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C428" s="10"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C429" s="10"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C430" s="10"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C431" s="10"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C432" s="10"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C433" s="10"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C434" s="10"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C435" s="10"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C436" s="10"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C437" s="10"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C438" s="10"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C439" s="10"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C440" s="10"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C441" s="10"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C442" s="10"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C443" s="10"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C444" s="10"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C445" s="10"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C446" s="10"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C447" s="10"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C448" s="10"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C449" s="10"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C450" s="10"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C451" s="10"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C452" s="10"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C453" s="10"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C454" s="10"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C455" s="10"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C456" s="10"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C457" s="10"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C458" s="10"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C459" s="10"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C460" s="10"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C461" s="10"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C462" s="10"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C463" s="10"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C464" s="10"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C465" s="10"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C466" s="10"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C467" s="10"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C468" s="10"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C469" s="10"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C470" s="10"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C471" s="10"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C472" s="10"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C473" s="10"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C474" s="10"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C475" s="10"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C476" s="10"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C477" s="10"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C478" s="10"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C479" s="10"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C480" s="10"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C481" s="10"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C482" s="10"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C483" s="10"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C484" s="10"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C485" s="10"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C486" s="10"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C487" s="10"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C488" s="10"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C489" s="10"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C490" s="10"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C491" s="10"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C492" s="10"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C493" s="10"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C494" s="10"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C495" s="10"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C496" s="10"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C497" s="10"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C498" s="10"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C499" s="10"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C500" s="10"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C501" s="10"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C502" s="10"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C503" s="10"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C504" s="10"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C505" s="10"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C506" s="10"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C507" s="10"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C508" s="10"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C509" s="10"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C510" s="10"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C511" s="10"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C512" s="10"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C513" s="10"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C514" s="10"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C515" s="10"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C516" s="10"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C517" s="10"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C518" s="10"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C519" s="10"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C520" s="10"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C521" s="10"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C522" s="10"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C523" s="10"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C524" s="10"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C525" s="10"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C526" s="10"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C527" s="10"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C528" s="10"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C529" s="10"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C530" s="10"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C531" s="10"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C532" s="10"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C533" s="10"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C534" s="10"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C535" s="10"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C536" s="10"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C537" s="10"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C538" s="10"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C539" s="10"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C540" s="10"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C541" s="10"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C542" s="10"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C543" s="10"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C544" s="10"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C545" s="10"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C546" s="10"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C547" s="10"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C548" s="10"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C549" s="10"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C550" s="10"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C551" s="10"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C552" s="10"/>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C553" s="10"/>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C554" s="10"/>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C555" s="10"/>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C556" s="10"/>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C557" s="10"/>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C558" s="10"/>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C559" s="10"/>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C560" s="10"/>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C561" s="10"/>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C562" s="10"/>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C563" s="10"/>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C564" s="10"/>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C565" s="10"/>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C566" s="10"/>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C567" s="10"/>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C568" s="10"/>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C569" s="10"/>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C570" s="10"/>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C571" s="10"/>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C572" s="10"/>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C573" s="10"/>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C574" s="10"/>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C575" s="10"/>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C576" s="10"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C577" s="10"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C578" s="10"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C579" s="10"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C580" s="10"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C581" s="10"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C582" s="10"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C583" s="10"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C584" s="10"/>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C585" s="10"/>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C586" s="10"/>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C587" s="10"/>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C588" s="10"/>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C589" s="10"/>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C590" s="10"/>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C591" s="10"/>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C592" s="10"/>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C593" s="10"/>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C594" s="10"/>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C595" s="10"/>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C596" s="10"/>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C597" s="10"/>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C598" s="10"/>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C599" s="10"/>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C600" s="10"/>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C601" s="10"/>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C602" s="10"/>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C603" s="10"/>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C604" s="10"/>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C605" s="10"/>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C606" s="10"/>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C607" s="10"/>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C608" s="10"/>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C609" s="10"/>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C610" s="10"/>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C611" s="10"/>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C612" s="10"/>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C613" s="10"/>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C614" s="10"/>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C615" s="10"/>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C616" s="10"/>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C617" s="10"/>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C618" s="10"/>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C619" s="10"/>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C620" s="10"/>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C621" s="10"/>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C622" s="10"/>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C623" s="10"/>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C624" s="10"/>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C625" s="10"/>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C626" s="10"/>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C627" s="10"/>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C628" s="10"/>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C629" s="10"/>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C630" s="10"/>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C631" s="10"/>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C632" s="10"/>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C633" s="10"/>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C634" s="10"/>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C635" s="10"/>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C636" s="10"/>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C637" s="10"/>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C638" s="10"/>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C639" s="10"/>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C640" s="10"/>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C641" s="10"/>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C642" s="10"/>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C643" s="10"/>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C644" s="10"/>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C645" s="10"/>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C646" s="10"/>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C647" s="10"/>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C648" s="10"/>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C649" s="10"/>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C650" s="10"/>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C651" s="10"/>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C652" s="10"/>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C653" s="10"/>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C654" s="10"/>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C655" s="10"/>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C656" s="10"/>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C657" s="10"/>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C658" s="10"/>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C659" s="10"/>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C660" s="10"/>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C661" s="10"/>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C662" s="10"/>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C663" s="10"/>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C664" s="10"/>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C665" s="10"/>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C666" s="10"/>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C667" s="10"/>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C668" s="10"/>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C669" s="10"/>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C670" s="10"/>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C671" s="10"/>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C672" s="10"/>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C673" s="10"/>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C674" s="10"/>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C675" s="10"/>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C676" s="10"/>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C677" s="10"/>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C678" s="10"/>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C679" s="10"/>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C680" s="10"/>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C681" s="10"/>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C682" s="10"/>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C683" s="10"/>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C684" s="10"/>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C685" s="10"/>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C686" s="10"/>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C687" s="10"/>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C688" s="10"/>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C689" s="10"/>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C690" s="10"/>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C691" s="10"/>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C692" s="10"/>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C693" s="10"/>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C694" s="10"/>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C695" s="10"/>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C696" s="10"/>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C697" s="10"/>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C698" s="10"/>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C699" s="10"/>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C700" s="10"/>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C701" s="10"/>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C702" s="10"/>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C703" s="10"/>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C704" s="10"/>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C705" s="10"/>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C706" s="10"/>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C707" s="10"/>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C708" s="10"/>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C709" s="10"/>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C710" s="10"/>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C711" s="10"/>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C712" s="10"/>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C713" s="10"/>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C714" s="10"/>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C715" s="10"/>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C716" s="10"/>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C717" s="10"/>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C718" s="10"/>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C719" s="10"/>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C720" s="10"/>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C721" s="10"/>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C722" s="10"/>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C723" s="10"/>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C724" s="10"/>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C725" s="10"/>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C726" s="10"/>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C727" s="10"/>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C728" s="10"/>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C729" s="10"/>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C730" s="10"/>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C731" s="10"/>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C732" s="10"/>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C733" s="10"/>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C734" s="10"/>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C735" s="10"/>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C736" s="10"/>
     </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C737" s="10"/>
     </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C738" s="10"/>
     </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C739" s="10"/>
     </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C740" s="10"/>
     </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C741" s="10"/>
     </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C742" s="10"/>
     </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C743" s="10"/>
     </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C744" s="10"/>
     </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C745" s="10"/>
     </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C746" s="10"/>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C747" s="10"/>
     </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C748" s="10"/>
     </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C749" s="10"/>
     </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C750" s="10"/>
     </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C751" s="10"/>
     </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C752" s="10"/>
     </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C753" s="10"/>
     </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C754" s="10"/>
     </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C755" s="10"/>
     </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C756" s="10"/>
     </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C757" s="10"/>
     </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C758" s="10"/>
     </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C759" s="10"/>
     </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C760" s="10"/>
     </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C761" s="10"/>
     </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C762" s="10"/>
     </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C763" s="10"/>
     </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C764" s="10"/>
     </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C765" s="10"/>
     </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C766" s="10"/>
     </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C767" s="10"/>
     </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C768" s="10"/>
     </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C769" s="10"/>
     </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C770" s="10"/>
     </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C771" s="10"/>
     </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C772" s="10"/>
     </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C773" s="10"/>
     </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C774" s="10"/>
     </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C775" s="10"/>
     </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C776" s="10"/>
     </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C777" s="10"/>
     </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C778" s="10"/>
     </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C779" s="10"/>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C780" s="10"/>
     </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C781" s="10"/>
     </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C782" s="10"/>
     </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C783" s="10"/>
     </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C784" s="10"/>
     </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C785" s="10"/>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C786" s="10"/>
     </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C787" s="10"/>
     </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C788" s="10"/>
     </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C789" s="10"/>
     </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C790" s="10"/>
     </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C791" s="10"/>
     </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C792" s="10"/>
     </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C793" s="10"/>
     </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C794" s="10"/>
     </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C795" s="10"/>
     </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C796" s="10"/>
     </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C797" s="10"/>
     </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C798" s="10"/>
     </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C799" s="10"/>
     </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C800" s="10"/>
     </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C801" s="10"/>
     </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C802" s="10"/>
     </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C803" s="10"/>
     </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C804" s="10"/>
     </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C805" s="10"/>
     </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C806" s="10"/>
     </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C807" s="10"/>
     </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C808" s="10"/>
     </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C809" s="10"/>
     </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C810" s="10"/>
     </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C811" s="10"/>
     </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C812" s="10"/>
     </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C813" s="10"/>
     </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C814" s="10"/>
     </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C815" s="10"/>
     </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C816" s="10"/>
     </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C817" s="10"/>
     </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C818" s="10"/>
     </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C819" s="10"/>
     </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C820" s="10"/>
     </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C821" s="10"/>
     </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C822" s="10"/>
     </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C823" s="10"/>
     </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C824" s="10"/>
     </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C825" s="10"/>
     </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C826" s="10"/>
     </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C827" s="10"/>
     </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C828" s="10"/>
     </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C829" s="10"/>
     </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C830" s="10"/>
     </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C831" s="10"/>
     </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C832" s="10"/>
     </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C833" s="10"/>
     </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C834" s="10"/>
     </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C835" s="10"/>
     </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C836" s="10"/>
     </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C837" s="10"/>
     </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C838" s="10"/>
     </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C839" s="10"/>
     </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C840" s="10"/>
     </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C841" s="10"/>
     </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C842" s="10"/>
     </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C843" s="10"/>
     </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C844" s="10"/>
     </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C845" s="10"/>
     </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C846" s="10"/>
     </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C847" s="10"/>
     </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C848" s="10"/>
     </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C849" s="10"/>
     </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C850" s="10"/>
     </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C851" s="10"/>
     </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C852" s="10"/>
     </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C853" s="10"/>
     </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C854" s="10"/>
     </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C855" s="10"/>
     </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C856" s="10"/>
     </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C857" s="10"/>
     </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C858" s="10"/>
     </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C859" s="10"/>
     </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C860" s="10"/>
     </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C861" s="10"/>
     </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C862" s="10"/>
     </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C863" s="10"/>
     </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C864" s="10"/>
     </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C865" s="10"/>
     </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C866" s="10"/>
     </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C867" s="10"/>
     </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C868" s="10"/>
     </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C869" s="10"/>
     </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C870" s="10"/>
     </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C871" s="10"/>
     </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C872" s="10"/>
     </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C873" s="10"/>
     </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C874" s="10"/>
     </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C875" s="10"/>
     </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C876" s="10"/>
     </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C877" s="10"/>
     </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C878" s="10"/>
     </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C879" s="10"/>
     </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C880" s="10"/>
     </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C881" s="10"/>
     </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C882" s="10"/>
     </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C883" s="10"/>
     </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C884" s="10"/>
     </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C885" s="10"/>
     </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C886" s="10"/>
     </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C887" s="10"/>
     </row>
-    <row r="888" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C888" s="10"/>
     </row>
-    <row r="889" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C889" s="10"/>
     </row>
-    <row r="890" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C890" s="10"/>
     </row>
-    <row r="891" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C891" s="10"/>
     </row>
-    <row r="892" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C892" s="10"/>
     </row>
-    <row r="893" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C893" s="10"/>
     </row>
-    <row r="894" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C894" s="10"/>
     </row>
-    <row r="895" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C895" s="10"/>
     </row>
-    <row r="896" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C896" s="10"/>
     </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C897" s="10"/>
     </row>
-    <row r="898" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C898" s="10"/>
     </row>
-    <row r="899" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C899" s="10"/>
     </row>
-    <row r="900" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C900" s="10"/>
     </row>
-    <row r="901" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C901" s="10"/>
     </row>
-    <row r="902" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C902" s="10"/>
     </row>
-    <row r="903" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C903" s="10"/>
     </row>
-    <row r="904" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C904" s="10"/>
     </row>
-    <row r="905" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C905" s="10"/>
     </row>
-    <row r="906" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C906" s="10"/>
     </row>
-    <row r="907" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C907" s="10"/>
     </row>
-    <row r="908" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C908" s="10"/>
     </row>
-    <row r="909" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C909" s="10"/>
     </row>
-    <row r="910" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C910" s="10"/>
     </row>
-    <row r="911" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C911" s="10"/>
     </row>
-    <row r="912" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C912" s="10"/>
     </row>
-    <row r="913" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C913" s="10"/>
     </row>
-    <row r="914" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C914" s="10"/>
     </row>
-    <row r="915" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C915" s="10"/>
     </row>
-    <row r="916" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C916" s="10"/>
     </row>
-    <row r="917" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C917" s="10"/>
     </row>
-    <row r="918" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C918" s="10"/>
     </row>
-    <row r="919" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C919" s="10"/>
     </row>
-    <row r="920" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C920" s="10"/>
     </row>
-    <row r="921" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C921" s="10"/>
     </row>
-    <row r="922" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C922" s="10"/>
     </row>
-    <row r="923" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C923" s="10"/>
     </row>
-    <row r="924" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C924" s="10"/>
     </row>
-    <row r="925" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C925" s="10"/>
     </row>
-    <row r="926" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C926" s="10"/>
     </row>
-    <row r="927" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C927" s="10"/>
     </row>
-    <row r="928" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C928" s="10"/>
     </row>
-    <row r="929" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C929" s="10"/>
     </row>
-    <row r="930" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C930" s="10"/>
     </row>
-    <row r="931" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C931" s="10"/>
     </row>
-    <row r="932" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C932" s="10"/>
     </row>
-    <row r="933" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C933" s="10"/>
     </row>
-    <row r="934" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C934" s="10"/>
     </row>
-    <row r="935" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C935" s="10"/>
     </row>
-    <row r="936" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C936" s="10"/>
     </row>
-    <row r="937" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C937" s="10"/>
     </row>
-    <row r="938" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C938" s="10"/>
     </row>
-    <row r="939" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C939" s="10"/>
     </row>
-    <row r="940" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C940" s="10"/>
     </row>
-    <row r="941" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C941" s="10"/>
     </row>
-    <row r="942" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C942" s="10"/>
     </row>
-    <row r="943" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C943" s="10"/>
     </row>
-    <row r="944" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C944" s="10"/>
     </row>
-    <row r="945" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C945" s="10"/>
     </row>
-    <row r="946" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C946" s="10"/>
     </row>
-    <row r="947" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C947" s="10"/>
     </row>
-    <row r="948" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C948" s="10"/>
     </row>
-    <row r="949" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C949" s="10"/>
     </row>
-    <row r="950" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C950" s="10"/>
     </row>
-    <row r="951" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C951" s="10"/>
     </row>
-    <row r="952" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C952" s="10"/>
     </row>
-    <row r="953" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C953" s="10"/>
     </row>
-    <row r="954" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C954" s="10"/>
     </row>
-    <row r="955" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C955" s="10"/>
     </row>
-    <row r="956" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C956" s="10"/>
     </row>
-    <row r="957" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C957" s="10"/>
     </row>
-    <row r="958" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C958" s="10"/>
     </row>
-    <row r="959" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C959" s="10"/>
     </row>
-    <row r="960" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C960" s="10"/>
     </row>
-    <row r="961" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C961" s="10"/>
     </row>
-    <row r="962" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C962" s="10"/>
     </row>
-    <row r="963" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C963" s="10"/>
     </row>
-    <row r="964" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C964" s="10"/>
     </row>
-    <row r="965" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C965" s="10"/>
     </row>
-    <row r="966" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C966" s="10"/>
     </row>
-    <row r="967" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C967" s="10"/>
     </row>
-    <row r="968" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C968" s="10"/>
     </row>
-    <row r="969" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C969" s="10"/>
     </row>
-    <row r="970" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C970" s="10"/>
     </row>
-    <row r="971" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C971" s="10"/>
     </row>
-    <row r="972" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C972" s="10"/>
     </row>
-    <row r="973" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C973" s="10"/>
     </row>
-    <row r="974" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C974" s="10"/>
     </row>
-    <row r="975" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C975" s="10"/>
     </row>
-    <row r="976" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C976" s="10"/>
     </row>
-    <row r="977" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C977" s="10"/>
     </row>
-    <row r="978" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C978" s="10"/>
     </row>
-    <row r="979" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C979" s="10"/>
     </row>
-    <row r="980" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C980" s="10"/>
     </row>
-    <row r="981" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C981" s="10"/>
     </row>
-    <row r="982" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C982" s="10"/>
     </row>
-    <row r="983" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C983" s="10"/>
     </row>
-    <row r="984" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C984" s="10"/>
     </row>
-    <row r="985" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C985" s="10"/>
     </row>
-    <row r="986" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="986" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C986" s="10"/>
     </row>
   </sheetData>

--- a/Data/SiteKeys.xlsx
+++ b/Data/SiteKeys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denisse\Documents\Work\Sara\UVC_DOVS_Galapagos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838EEED-6107-4A3C-BDD3-8F9F7FC7BE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB96F8-2486-4516-ABC1-4E0497D590FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{520C0315-4934-4420-8948-D1D1C72D6F66}"/>
   </bookViews>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:F986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
